--- a/Coverage Survey/Burkina Faso/SCH/BF_ECT_Schisto_2020  Formulaire_village.xlsx
+++ b/Coverage Survey/Burkina Faso/SCH/BF_ECT_Schisto_2020  Formulaire_village.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\WHO\dsa-forms\Coverage Survey\Burkina Faso\SCH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF37050B-F595-4C7E-B8C5-393546180127}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{420F14D4-17A6-4308-BE71-956E84C4D5EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15360" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -209,7 +209,7 @@
     <t>bf_ECT_Schisto_1_village_202011</t>
   </si>
   <si>
-    <t>Burkina Faso ECT Schisto2020 - 1. Formulaire Village</t>
+    <t>(BF - Novembre 2020) ECT Schisto - 1. Formulaire Village</t>
   </si>
 </sst>
 </file>
@@ -631,21 +631,21 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.609375" defaultRowHeight="15.7" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.609375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.38671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="50.38671875" customWidth="1"/>
-    <col min="4" max="4" width="23.609375" customWidth="1"/>
-    <col min="5" max="5" width="13.609375" customWidth="1"/>
-    <col min="6" max="6" width="18.609375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.375" customWidth="1"/>
+    <col min="4" max="4" width="23.625" customWidth="1"/>
+    <col min="5" max="5" width="13.625" customWidth="1"/>
+    <col min="6" max="6" width="18.625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
-    <col min="8" max="8" width="30.609375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="35.38671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="35.375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="36" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:13" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
@@ -686,7 +686,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>46</v>
       </c>
@@ -709,7 +709,7 @@
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>19</v>
       </c>
@@ -731,7 +731,7 @@
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
     </row>
-    <row r="4" spans="1:13" ht="31.35" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>24</v>
       </c>
@@ -756,7 +756,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>24</v>
       </c>
@@ -779,7 +779,7 @@
       <c r="L5" s="6"/>
       <c r="M5" s="7"/>
     </row>
-    <row r="6" spans="1:13" ht="56.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:13" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>25</v>
       </c>
@@ -804,7 +804,7 @@
       <c r="L6" s="6"/>
       <c r="M6" s="7"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>26</v>
       </c>
@@ -827,7 +827,7 @@
       <c r="L7" s="6"/>
       <c r="M7" s="7"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>29</v>
       </c>
@@ -848,7 +848,7 @@
       <c r="L8" s="6"/>
       <c r="M8" s="7"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>55</v>
       </c>
@@ -856,7 +856,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>32</v>
       </c>
@@ -888,14 +888,14 @@
       <selection activeCell="A2" sqref="A2:C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.609375" defaultRowHeight="15.7" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.38671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.609375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -910,7 +910,7 @@
       </c>
       <c r="E1" s="10"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -921,7 +921,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -932,7 +932,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -943,7 +943,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -954,7 +954,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>49</v>
       </c>
@@ -965,7 +965,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>49</v>
       </c>
@@ -976,7 +976,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>49</v>
       </c>
@@ -987,7 +987,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>49</v>
       </c>
@@ -998,7 +998,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>49</v>
       </c>
@@ -1021,17 +1021,17 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.609375" defaultRowHeight="15.7" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.109375" customWidth="1"/>
-    <col min="2" max="2" width="28.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.125" customWidth="1"/>
+    <col min="2" max="2" width="28.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1042,7 +1042,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>59</v>
       </c>

--- a/Coverage Survey/Burkina Faso/SCH/BF_ECT_Schisto_2020  Formulaire_village.xlsx
+++ b/Coverage Survey/Burkina Faso/SCH/BF_ECT_Schisto_2020  Formulaire_village.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\WHO\dsa-forms\Coverage Survey\Burkina Faso\SCH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{420F14D4-17A6-4308-BE71-956E84C4D5EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A10A35CD-E4B7-4CB6-A492-D0D0B2A51B52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15360" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="62">
   <si>
     <t>form_title</t>
   </si>
@@ -131,6 +131,9 @@
     <t>end</t>
   </si>
   <si>
+    <t>date_sauvegarde</t>
+  </si>
+  <si>
     <t>constraint_message::French</t>
   </si>
   <si>
@@ -140,12 +143,6 @@
     <t>sentinel_site=${sentinel_site}</t>
   </si>
   <si>
-    <t>couverture_tdm_2019</t>
-  </si>
-  <si>
-    <t>Couverture thérapeutique  TDM FL 2019</t>
-  </si>
-  <si>
     <t>La valeur saisie doit être en décimal à 2 chiffres après la virgule et comprise entre 00 et 99</t>
   </si>
   <si>
@@ -197,26 +194,35 @@
     <t>04</t>
   </si>
   <si>
-    <t>start</t>
-  </si>
-  <si>
-    <t>debut_enregistrement</t>
-  </si>
-  <si>
-    <t>fin_enregistrement</t>
+    <t>couverture_tdm_2020</t>
+  </si>
+  <si>
+    <t>Couverture thérapeutique  TDM schisto 2020</t>
+  </si>
+  <si>
+    <t>Numéro grappe</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>. &gt;= 1 and . &lt;= 30</t>
+  </si>
+  <si>
+    <t>Num_grappe</t>
+  </si>
+  <si>
+    <t>(BF - Novembre 2020) ECT Schisto - 1. Formulaire Village</t>
   </si>
   <si>
     <t>bf_ECT_Schisto_1_village_202011</t>
-  </si>
-  <si>
-    <t>(BF - Novembre 2020) ECT Schisto - 1. Formulaire Village</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -277,13 +283,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -315,7 +332,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -336,13 +353,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -627,8 +645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -656,7 +674,7 @@
         <v>5</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>10</v>
@@ -665,7 +683,7 @@
         <v>11</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>12</v>
@@ -688,13 +706,13 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>47</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>48</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
@@ -732,8 +750,8 @@
       <c r="L3" s="6"/>
     </row>
     <row r="4" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>24</v>
+      <c r="A4" s="10" t="s">
+        <v>29</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>7</v>
@@ -752,13 +770,13 @@
       </c>
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
-      <c r="M4" s="9" t="s">
-        <v>35</v>
+      <c r="M4" s="8" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>24</v>
+      <c r="A5" s="10" t="s">
+        <v>29</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>8</v>
@@ -779,42 +797,42 @@
       <c r="L5" s="6"/>
       <c r="M5" s="7"/>
     </row>
-    <row r="6" spans="1:13" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>58</v>
+      </c>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
-      <c r="J6" s="6" t="s">
-        <v>18</v>
-      </c>
+      <c r="J6" s="6"/>
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
       <c r="M6" s="7"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="6"/>
+        <v>55</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>37</v>
+      </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
@@ -829,13 +847,13 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
@@ -843,25 +861,40 @@
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
+      <c r="J8" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
       <c r="M8" s="7"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>56</v>
-      </c>
+      <c r="A9" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="7"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>32</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -905,20 +938,20 @@
       <c r="C1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="10"/>
+      <c r="E1" s="9"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -926,10 +959,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" t="s">
         <v>40</v>
-      </c>
-      <c r="C3" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -937,10 +970,10 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" t="s">
         <v>42</v>
-      </c>
-      <c r="C4" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -948,65 +981,65 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" t="s">
         <v>44</v>
-      </c>
-      <c r="C5" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" t="s">
         <v>49</v>
       </c>
-      <c r="B6" t="s">
-        <v>50</v>
-      </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" t="s">
         <v>52</v>
-      </c>
-      <c r="C8" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1020,14 +1053,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="44.125" customWidth="1"/>
-    <col min="2" max="2" width="28.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1044,10 +1077,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C2">
         <v>20201115</v>
